--- a/src/fysisk_biokemi/datasets/files/design-enzyme-kineti-exper.xlsx
+++ b/src/fysisk_biokemi/datasets/files/design-enzyme-kineti-exper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au616397/Library/CloudStorage/Dropbox/mbg/fysisk_biokemi/fysisk_biokemi/src/fysisk_biokemi/datasets/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34812B88-42BD-CC4C-AA5E-D5FAEFC7DAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709A027-7E9C-8A40-ABE0-44D49AAAC78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27120" windowHeight="16440" xr2:uid="{D14878B1-CCD2-4340-8358-664657F35022}"/>
+    <workbookView xWindow="-65160" yWindow="100" windowWidth="27120" windowHeight="16440" xr2:uid="{D14878B1-CCD2-4340-8358-664657F35022}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,42 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Abs_S1</t>
-  </si>
-  <si>
-    <t>Abs_S3</t>
-  </si>
-  <si>
-    <t>Abs_S5</t>
-  </si>
-  <si>
-    <t>Abs_S7</t>
-  </si>
-  <si>
-    <t>Abs_S9</t>
-  </si>
-  <si>
-    <t>Abs_S13</t>
-  </si>
-  <si>
-    <t>Abs_S15</t>
   </si>
   <si>
     <t>time_(s)</t>
   </si>
   <si>
-    <t>Abs_S11</t>
+    <t>Abs_S2</t>
+  </si>
+  <si>
+    <t>Abs_S4</t>
+  </si>
+  <si>
+    <t>Abs_S8</t>
+  </si>
+  <si>
+    <t>Abs_S16</t>
+  </si>
+  <si>
+    <t>Abs_S32</t>
+  </si>
+  <si>
+    <t>Abs_S64</t>
+  </si>
+  <si>
+    <t>Abs_S128</t>
+  </si>
+  <si>
+    <t>Abs_S256</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,7 +104,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,650 +439,716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2E14BD-0838-B144-A4FB-B1F58DB83CCB}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>3.316399133951447E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>9.949197401854357E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>1.6581995669757221E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>2.3214793937660145E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>2.9847592205563069E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>3.6480390473465935E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>4.3113188741368796E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>4.9745987009271665E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>6.471055573554753E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>1.9413166720664246E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>3.2355277867773778E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>4.5297389014883255E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>5.8239500161992731E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>7.1181611309102277E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>8.4123722456211802E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>9.7065833603321341E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.121</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>9.4718576030960698E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>2.8415572809288209E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>4.7359288015480346E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>6.6303003221672485E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F5" s="2">
-        <v>8.5246718427864632E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>0.10419043363405676</v>
+        <v>0.105</v>
       </c>
       <c r="H5" s="2">
-        <v>0.12313414884024891</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="I5" s="2">
-        <v>0.14207786404644104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1.2326308790697236E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>3.6978926372091707E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>6.1631543953486162E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>8.6284161534880652E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>0.11093677911627514</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>0.13558939669766962</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="H6" s="2">
-        <v>0.16024201427906412</v>
+        <v>0.183</v>
       </c>
       <c r="I6" s="2">
-        <v>0.1848946318604586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.224</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.5041546751144469E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>4.5124640253433414E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>7.5207733755722345E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>0.10529082725801127</v>
+        <v>6.3E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>0.13537392076030025</v>
+        <v>0.106</v>
       </c>
       <c r="G7" s="2">
-        <v>0.1654570142625891</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="H7" s="2">
-        <v>0.1955401077648781</v>
+        <v>0.221</v>
       </c>
       <c r="I7" s="2">
-        <v>0.22562320126716709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1.7624360993643187E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>5.2873082980929548E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>8.8121804968215936E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="2">
-        <v>0.12337052695550232</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>0.15861924894278864</v>
+        <v>0.123</v>
       </c>
       <c r="G8" s="2">
-        <v>0.1938679709300751</v>
+        <v>0.188</v>
       </c>
       <c r="H8" s="2">
-        <v>0.22911669291736142</v>
+        <v>0.255</v>
       </c>
       <c r="I8" s="2">
-        <v>0.26436541490464777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.311</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7.0000000000000009</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0081209899127494E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>6.0243629697382485E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.10040604949563747</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>0.14056846929389247</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>0.18073088909214746</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>0.22089330889040246</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>0.26105572868865745</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="I9" s="2">
-        <v>0.30121814848691242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.35</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>2.2418236869576526E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>6.7254710608729604E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.11209118434788262</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>0.15692765808703571</v>
+        <v>0.09</v>
       </c>
       <c r="F10" s="2">
-        <v>0.20176413182618874</v>
+        <v>0.152</v>
       </c>
       <c r="G10" s="2">
-        <v>0.24660060556534183</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="H10" s="2">
-        <v>0.29143707930449492</v>
+        <v>0.317</v>
       </c>
       <c r="I10" s="2">
-        <v>0.33627355304364792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>2.4641285689719416E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>7.3923857069158244E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.12320642844859708</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>0.17248899982803589</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>0.22177157120747473</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>0.27105414258691357</v>
+        <v>0.253</v>
       </c>
       <c r="H11" s="2">
-        <v>0.32033671396635244</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I11" s="2">
-        <v>0.3696192853457913</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>2.6755915139540929E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C12" s="2">
-        <v>8.0267745418622791E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D12" s="2">
-        <v>0.13377957569770466</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>0.18729140597678648</v>
+        <v>0.105</v>
       </c>
       <c r="F12" s="2">
-        <v>0.24080323625586839</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="G12" s="2">
-        <v>0.29431506653495021</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="H12" s="2">
-        <v>0.34782689681403212</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="I12" s="2">
-        <v>0.40133872709311397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.45</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>2.8767412894126911E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>8.6302238682380725E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.14383706447063455</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>0.20137189025888841</v>
+        <v>0.111</v>
       </c>
       <c r="F13" s="2">
-        <v>0.25890671604714216</v>
+        <v>0.188</v>
       </c>
       <c r="G13" s="2">
-        <v>0.31644154183539602</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="H13" s="2">
-        <v>0.37397636762364977</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="I13" s="2">
-        <v>0.43151119341190369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>3.0680808745606209E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>9.2042426236818631E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.15340404372803104</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>0.21476566121924345</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F14" s="2">
-        <v>0.27612727871045589</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>0.33748889620166828</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H14" s="2">
-        <v>0.39885051369288071</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="I14" s="2">
-        <v>0.4602121311840931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.504</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>3.2500887180250911E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>9.7502661540752739E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>0.16250443590125457</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>0.22750621026175635</v>
+        <v>0.123</v>
       </c>
       <c r="F15" s="2">
-        <v>0.29250798462225824</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="G15" s="2">
-        <v>0.35750975898276</v>
+        <v>0.318</v>
       </c>
       <c r="H15" s="2">
-        <v>0.42251153334326186</v>
+        <v>0.433</v>
       </c>
       <c r="I15" s="2">
-        <v>0.48751330770376367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14.000000000000002</v>
       </c>
       <c r="B16" s="2">
-        <v>3.4232199342184161E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>0.10269659802655248</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>0.1711609967109208</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>0.23962539539528913</v>
+        <v>0.128</v>
       </c>
       <c r="F16" s="2">
-        <v>0.30808979407965748</v>
+        <v>0.217</v>
       </c>
       <c r="G16" s="2">
-        <v>0.3765541927640258</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="H16" s="2">
-        <v>0.44501859144839412</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="I16" s="2">
-        <v>0.51348299013276244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>3.5879074413611003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C17" s="2">
-        <v>0.10763722324083302</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>0.179395372068055</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>0.25115352089527704</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F17" s="2">
-        <v>0.32291166972249902</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G17" s="2">
-        <v>0.394669818549721</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="H17" s="2">
-        <v>0.46642796737694309</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="I17" s="2">
-        <v>0.53818611620416501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>3.7445630440028937E-2</v>
+        <v>0.02</v>
       </c>
       <c r="C18" s="2">
-        <v>0.11233689132008681</v>
+        <v>0.04</v>
       </c>
       <c r="D18" s="2">
-        <v>0.18722815220014469</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>0.26211941308020253</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="F18" s="2">
-        <v>0.33701067396026047</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="G18" s="2">
-        <v>0.41190193484031828</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="H18" s="2">
-        <v>0.48679319572037621</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="I18" s="2">
-        <v>0.56168445660043398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.59</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>3.8935784627486592E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>0.11680735388245977</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>0.19467892313743296</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>0.2725504923924062</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>0.35042206164737932</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="G19" s="2">
-        <v>0.42829363090235251</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="H19" s="2">
-        <v>0.50616520015732569</v>
+        <v>0.498</v>
       </c>
       <c r="I19" s="2">
-        <v>0.58403676941229876</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>4.0353263137639261E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>0.1210597894129178</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>0.20176631568819631</v>
+        <v>0.08</v>
       </c>
       <c r="E20" s="2">
-        <v>0.28247284196347483</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>0.36317936823875335</v>
+        <v>0.246</v>
       </c>
       <c r="G20" s="2">
-        <v>0.44388589451403188</v>
+        <v>0.376</v>
       </c>
       <c r="H20" s="2">
-        <v>0.52459242078931045</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="I20" s="2">
-        <v>0.60529894706458898</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.623</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>4.1701610405093917E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>0.12510483121528176</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>0.2085080520254696</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E21" s="2">
-        <v>0.29191127283565743</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>0.37531449364584529</v>
+        <v>0.252</v>
       </c>
       <c r="G21" s="2">
-        <v>0.45871771445603315</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="H21" s="2">
-        <v>0.54212093526622096</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="I21" s="2">
-        <v>0.62552415607640877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>4.2984198000341922E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>0.12895259400102577</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>0.21492099000170961</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>0.30088938600239351</v>
+        <v>0.152</v>
       </c>
       <c r="F22" s="2">
-        <v>0.3868577820030773</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="G22" s="2">
-        <v>0.4728261780037612</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="H22" s="2">
-        <v>0.55879457400444499</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="I22" s="2">
-        <v>0.64476297000512894</v>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.70899999999999996</v>
       </c>
     </row>
   </sheetData>
